--- a/CSC430 Proj.xlsx
+++ b/CSC430 Proj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logancamp/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2235EE-7984-074F-B2F1-5C40298BF671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9672A-A651-2449-B84E-1FF31CE8DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3120" windowWidth="28040" windowHeight="17440" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>CPU Time</t>
   </si>
@@ -50,13 +72,7 @@
     <t>Brute Force</t>
   </si>
   <si>
-    <t>Best</t>
-  </si>
-  <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Worst</t>
   </si>
   <si>
     <t>"the"</t>
@@ -66,9 +82,6 @@
   </si>
   <si>
     <t>Algorithm</t>
-  </si>
-  <si>
-    <t>Case</t>
   </si>
   <si>
     <t>Text</t>
@@ -103,18 +116,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -243,11 +250,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,13 +274,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -294,6 +296,4264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> TIme Shakespear</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boyer Moore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29829299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.306894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.306251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30901499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1F7-934E-9B6B-8F3956430177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rabin Karp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95050599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93174299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97117699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98053100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1F7-934E-9B6B-8F3956430177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39718500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39888600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40608299999999897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38511499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39600400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1F7-934E-9B6B-8F3956430177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="618297008"/>
+        <c:axId val="618229264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="618297008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618229264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618229264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618297008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time Lottery</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boyer Moore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.17199999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.13400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1659999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1659999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1860000000000199E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C580-1846-BCE1-00175A6DA526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rabin Karp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4490000000000302E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4189999999998302E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5150000000000398E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5659999999999499E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.40099999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C580-1846-BCE1-00175A6DA526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4240000000000301E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4089999999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.45699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59899999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C580-1846-BCE1-00175A6DA526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="649018911"/>
+        <c:axId val="649062639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="649018911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649062639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="649062639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649018911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU Time Titanic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boyer Moore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6410999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.63329999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6601999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6722000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA00-BE46-A8DB-333FCE388C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rabin Karp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0868999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0996999999999897E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0644000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2000999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA00-BE46-A8DB-333FCE388C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0684999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0639000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2311999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0962999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0702999999999899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA00-BE46-A8DB-333FCE388C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="569893568"/>
+        <c:axId val="569996912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="569893568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569996912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="569996912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569893568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boyer Moore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Shakespear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Titanic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lottery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.30481060000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.654679999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1647999999999982E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C45-2D40-9038-F1AE2945A04F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rabin Karp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Shakespear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Titanic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lottery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96077139999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1218199999999957E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4699999999999653E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C45-2D40-9038-F1AE2945A04F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Shakespear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Titanic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lottery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.39665459999999975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1060399999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4746E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C45-2D40-9038-F1AE2945A04F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="465056544"/>
+        <c:axId val="465058656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="465056544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465058656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465058656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465056544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5887D9-2798-A5A2-1725-B77437C611C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07573E97-DBEE-CC40-7054-93F8ACE0245D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7447C2C-97DD-4D57-3096-DFAE4F421589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>282831</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>729648</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>191705</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFBC194-638F-891C-D8B4-DB6B5D3CCC55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,10 +4873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3516C63E-AE4E-114B-B95F-EE1600AC9405}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,402 +4885,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="16" t="s">
-        <v>5</v>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="17" t="e">
-        <f>AVERAGE(C2:G2)</f>
-        <v>#DIV/0!</v>
+      <c r="D2">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.29829299999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.306894</v>
+      </c>
+      <c r="G2">
+        <v>0.306251</v>
+      </c>
+      <c r="H2">
+        <v>0.30901499999999998</v>
+      </c>
+      <c r="I2" s="15">
+        <f>AVERAGE(D2:H2)</f>
+        <v>0.30481060000000004</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="18" t="e">
-        <f t="shared" ref="H3:H4" si="0">AVERAGE(C3:G3)</f>
-        <v>#DIV/0!</v>
+      <c r="D3">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.95050599999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.93174299999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.97117699999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.98053100000000004</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I10" si="0">AVERAGE(D3:H3)</f>
+        <v>0.96077139999999994</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18" t="e">
+      <c r="D4" s="8">
+        <v>0.39718500000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.39888600000000002</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.40608299999999897</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.38511499999999999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.39600400000000002</v>
+      </c>
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.39665459999999975</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="H5" s="18"/>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.17199999999995E-3</v>
+      </c>
+      <c r="E5">
+        <v>1.13400000000002E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.1659999999999999E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.1659999999999999E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.1860000000000199E-3</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1647999999999982E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18" t="e">
-        <f>AVERAGE(C6:G6)</f>
-        <v>#DIV/0!</v>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3.4490000000000302E-3</v>
+      </c>
+      <c r="E6">
+        <v>3.4189999999998302E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.5150000000000398E-3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3.5659999999999499E-3</v>
+      </c>
+      <c r="H6">
+        <v>3.40099999999998E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>3.4699999999999653E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18" t="e">
-        <f t="shared" ref="H7:H8" si="1">AVERAGE(C7:G7)</f>
-        <v>#DIV/0!</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.4240000000000301E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.48400000000004E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.4089999999999899E-3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.45699999999998E-3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.59899999999996E-3</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4746E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.6410999999999999E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.63329999999999E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1.6601999999999999E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1.6722000000000001E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1.6666E-2</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.654679999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5.0868999999999998E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5.0996999999999897E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5.0644000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.2000999999999901E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5.1580000000000001E-2</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1218199999999957E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20" t="e">
-        <f>AVERAGE(C10:G10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="20" t="e">
-        <f t="shared" ref="H11:H12" si="2">AVERAGE(C11:G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="16" t="s">
-        <v>5</v>
+      <c r="D10" s="16">
+        <v>2.0684999999999999E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2.0639000000000001E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2.2311999999999999E-2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2.0962999999999999E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2.0702999999999899E-2</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>2.1060399999999979E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.30359999999999998</v>
-      </c>
-      <c r="E15">
-        <v>0.29829299999999997</v>
-      </c>
-      <c r="F15">
-        <v>0.306894</v>
-      </c>
-      <c r="G15">
-        <v>0.306251</v>
-      </c>
-      <c r="H15">
-        <v>0.30901499999999998</v>
-      </c>
-      <c r="I15" s="17">
-        <f>AVERAGE(D15:H15)</f>
-        <v>0.30481060000000004</v>
+      <c r="B15" t="str">
+        <f>B2</f>
+        <v>Shakespear</v>
+      </c>
+      <c r="C15" t="str">
+        <f>B8</f>
+        <v>Titanic</v>
+      </c>
+      <c r="D15" t="str">
+        <f>B5</f>
+        <v>Lottery</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0.96989999999999998</v>
-      </c>
-      <c r="E16">
-        <v>0.95050599999999996</v>
-      </c>
-      <c r="F16">
-        <v>0.93174299999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.97117699999999996</v>
-      </c>
-      <c r="H16">
-        <v>0.98053100000000004</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" ref="I16:I23" si="3">AVERAGE(D16:H16)</f>
+      <c r="A16" t="str" cm="1">
+        <f t="array" ref="A16:A18">C2:C4</f>
+        <v>Boyer Moore</v>
+      </c>
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:B18">I2:I4</f>
+        <v>0.30481060000000004</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16:C18">I8:I10</f>
+        <v>1.654679999999998E-2</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16:D18">I5:I7</f>
+        <v>1.1647999999999982E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <v>Rabin Karp</v>
+      </c>
+      <c r="B17">
         <v>0.96077139999999994</v>
       </c>
+      <c r="C17">
+        <v>5.1218199999999957E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.4699999999999653E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.39718500000000001</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.39888600000000002</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.40608299999999897</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.38511499999999999</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.39600400000000002</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="3"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <v>Brute Force</v>
+      </c>
+      <c r="B18">
         <v>0.39665459999999975</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1</v>
+      <c r="C18">
+        <v>2.1060399999999979E-2</v>
       </c>
       <c r="D18">
-        <v>1.17199999999995E-3</v>
-      </c>
-      <c r="E18">
-        <v>1.13400000000002E-3</v>
-      </c>
-      <c r="F18">
-        <v>1.1659999999999999E-3</v>
-      </c>
-      <c r="G18">
-        <v>1.1659999999999999E-3</v>
-      </c>
-      <c r="H18">
-        <v>1.1860000000000199E-3</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="3"/>
-        <v>1.1647999999999982E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>3.4490000000000302E-3</v>
-      </c>
-      <c r="E19">
-        <v>3.4189999999998302E-3</v>
-      </c>
-      <c r="F19">
-        <v>3.5150000000000398E-3</v>
-      </c>
-      <c r="G19" s="11">
-        <v>3.5659999999999499E-3</v>
-      </c>
-      <c r="H19">
-        <v>5.0839999999999899E-2</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="3"/>
-        <v>1.295779999999995E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2.2829999999999999E-3</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3.7090000000000001E-3</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3.8639999999999898E-3</v>
-      </c>
-      <c r="G20" s="9">
-        <v>3.7529999999999899E-3</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3.6649999999999899E-3</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="3"/>
-        <v>3.454799999999994E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1.6410999999999999E-2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1.63329999999999E-2</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1.6601999999999999E-2</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1.6722000000000001E-2</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1.6666E-2</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" si="3"/>
-        <v>1.654679999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11">
-        <v>5.0868999999999998E-2</v>
-      </c>
-      <c r="E22" s="11">
-        <v>5.0996999999999897E-2</v>
-      </c>
-      <c r="F22" s="11">
-        <v>5.0644000000000002E-2</v>
-      </c>
-      <c r="G22">
-        <v>5.2000999999999901E-2</v>
-      </c>
-      <c r="H22" s="11">
-        <v>3.4570000000000399E-3</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="3"/>
-        <v>4.1593599999999967E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="19">
-        <v>2.9492999999999998E-2</v>
-      </c>
-      <c r="E23" s="19">
-        <v>4.0742E-2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>3.9659E-2</v>
-      </c>
-      <c r="G23" s="19">
-        <v>4.1218999999999999E-2</v>
-      </c>
-      <c r="H23" s="19">
-        <v>4.1487999999999997E-2</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="3"/>
-        <v>3.8520199999999997E-2</v>
+        <v>1.4746E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CSC430 Proj.xlsx
+++ b/CSC430 Proj.xlsx
@@ -1,49 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logancamp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9672A-A651-2449-B84E-1FF31CE8DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F258F-7AB4-47B4-B247-D7A1C2EFCF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -87,20 +76,20 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Shakespear</t>
-  </si>
-  <si>
     <t>Lottery</t>
   </si>
   <si>
     <t>Titanic</t>
+  </si>
+  <si>
+    <t>Shakespeare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,16 +244,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,6 +264,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +326,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> TIme Shakespear</a:t>
+              <a:t> TIme Shakespeare</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1874,7 +1863,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Shakespear</c:v>
+                  <c:v>Shakespeare</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Titanic</c:v>
@@ -1939,7 +1928,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Shakespear</c:v>
+                  <c:v>Shakespeare</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Titanic</c:v>
@@ -2004,7 +1993,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Shakespear</c:v>
+                  <c:v>Shakespeare</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Titanic</c:v>
@@ -4875,44 +4864,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3516C63E-AE4E-114B-B95F-EE1600AC9405}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2">
@@ -4930,14 +4919,14 @@
       <c r="H2">
         <v>0.30901499999999998</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <f>AVERAGE(D2:H2)</f>
         <v>0.30481060000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
@@ -4955,45 +4944,45 @@
       <c r="H3">
         <v>0.98053100000000004</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <f t="shared" ref="I3:I10" si="0">AVERAGE(D3:H3)</f>
         <v>0.96077139999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.39718500000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>0.39888600000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>0.40608299999999897</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>0.38511499999999999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>0.39600400000000002</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>0.39665459999999975</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5">
@@ -5011,14 +5000,14 @@
       <c r="H5">
         <v>1.1860000000000199E-3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>1.1647999999999982E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:9">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6">
@@ -5030,129 +5019,129 @@
       <c r="F6">
         <v>3.5150000000000398E-3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>3.5659999999999499E-3</v>
       </c>
       <c r="H6">
         <v>3.40099999999998E-3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <f t="shared" si="0"/>
         <v>3.4699999999999653E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1.4240000000000301E-3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>1.48400000000004E-3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>1.4089999999999899E-3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>1.45699999999998E-3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>1.59899999999996E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>1.4746E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>1.6410999999999999E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>1.63329999999999E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1.6601999999999999E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>1.6722000000000001E-2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>1.6666E-2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>1.654679999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>5.0868999999999998E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>5.0996999999999897E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>5.0644000000000002E-2</v>
       </c>
       <c r="G9">
         <v>5.2000999999999901E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>5.1580000000000001E-2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>5.1218199999999957E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>2.0684999999999999E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>2.0639000000000001E-2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>2.2311999999999999E-2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>2.0962999999999999E-2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>2.0702999999999899E-2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <f t="shared" si="0"/>
         <v>2.1060399999999979E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15" t="str">
         <f>B2</f>
-        <v>Shakespear</v>
+        <v>Shakespeare</v>
       </c>
       <c r="C15" t="str">
         <f>B8</f>
@@ -5163,7 +5152,7 @@
         <v>Lottery</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="str" cm="1">
         <f t="array" ref="A16:A18">C2:C4</f>
         <v>Boyer Moore</v>
@@ -5181,7 +5170,7 @@
         <v>1.1647999999999982E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="str">
         <v>Rabin Karp</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>3.4699999999999653E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="str">
         <v>Brute Force</v>
       </c>

--- a/CSC430 Proj.xlsx
+++ b/CSC430 Proj.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logancamp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logancamp/Desktop/CSC430/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9672A-A651-2449-B84E-1FF31CE8DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739F88A-D428-7D4B-84C2-73CF124F0EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22340" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,11 +250,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,9 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -275,12 +269,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,6 +665,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1642,6 +1693,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2124,6 +2230,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4875,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3516C63E-AE4E-114B-B95F-EE1600AC9405}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4888,20 +5049,20 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4909,10 +5070,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2">
@@ -4930,14 +5091,14 @@
       <c r="H2">
         <v>0.30901499999999998</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="12">
         <f>AVERAGE(D2:H2)</f>
         <v>0.30481060000000004</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
@@ -4955,33 +5116,33 @@
       <c r="H3">
         <v>0.98053100000000004</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="12">
         <f t="shared" ref="I3:I10" si="0">AVERAGE(D3:H3)</f>
         <v>0.96077139999999994</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.39718500000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>0.39888600000000002</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>0.40608299999999897</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>0.38511499999999999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>0.39600400000000002</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="12">
         <f t="shared" si="0"/>
         <v>0.39665459999999975</v>
       </c>
@@ -4990,10 +5151,10 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5">
@@ -5011,14 +5172,14 @@
       <c r="H5">
         <v>1.1860000000000199E-3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="12">
         <f t="shared" si="0"/>
         <v>1.1647999999999982E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6">
@@ -5030,121 +5191,121 @@
       <c r="F6">
         <v>3.5150000000000398E-3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>3.5659999999999499E-3</v>
       </c>
       <c r="H6">
         <v>3.40099999999998E-3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <f t="shared" si="0"/>
         <v>3.4699999999999653E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1.4240000000000301E-3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>1.48400000000004E-3</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>1.4089999999999899E-3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>1.45699999999998E-3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>1.59899999999996E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <f t="shared" si="0"/>
         <v>1.4746E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>1.6410999999999999E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>1.63329999999999E-2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1.6601999999999999E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>1.6722000000000001E-2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>1.6666E-2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>1.654679999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>5.0868999999999998E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>5.0996999999999897E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>5.0644000000000002E-2</v>
       </c>
       <c r="G9">
         <v>5.2000999999999901E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>5.1580000000000001E-2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>5.1218199999999957E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="8">
         <v>2.0684999999999999E-2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="8">
         <v>2.0639000000000001E-2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="8">
         <v>2.2311999999999999E-2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="8">
         <v>2.0962999999999999E-2</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="8">
         <v>2.0702999999999899E-2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>2.1060399999999979E-2</v>
       </c>

--- a/CSC430 Proj.xlsx
+++ b/CSC430 Proj.xlsx
@@ -1,38 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logancamp/Desktop/CSC430/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F258F-7AB4-47B4-B247-D7A1C2EFCF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF4E08-2AAD-B648-86FF-BD74A65F55A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33720" windowHeight="18040" xr2:uid="{194B7978-61BF-E746-BFF1-312F519DEFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -89,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,9 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -262,7 +270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +665,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1147,6 +1209,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1631,6 +1748,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2113,6 +2285,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4864,41 +5091,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3516C63E-AE4E-114B-B95F-EE1600AC9405}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="12" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4919,12 +5146,12 @@
       <c r="H2">
         <v>0.30901499999999998</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <f>AVERAGE(D2:H2)</f>
         <v>0.30481060000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -4944,38 +5171,38 @@
       <c r="H3">
         <v>0.98053100000000004</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <f t="shared" ref="I3:I10" si="0">AVERAGE(D3:H3)</f>
         <v>0.96077139999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.39718500000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.39888600000000002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.40608299999999897</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.38511499999999999</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.39600400000000002</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f t="shared" si="0"/>
         <v>0.39665459999999975</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5000,12 +5227,12 @@
       <c r="H5">
         <v>1.1860000000000199E-3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f t="shared" si="0"/>
         <v>1.1647999999999982E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -5019,126 +5246,126 @@
       <c r="F6">
         <v>3.5150000000000398E-3</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>3.5659999999999499E-3</v>
       </c>
       <c r="H6">
         <v>3.40099999999998E-3</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" si="0"/>
         <v>3.4699999999999653E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1.4240000000000301E-3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1.48400000000004E-3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1.4089999999999899E-3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1.45699999999998E-3</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>1.59899999999996E-3</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="shared" si="0"/>
         <v>1.4746E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1.6410999999999999E-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1.63329999999999E-2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>1.6601999999999999E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1.6722000000000001E-2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>1.6666E-2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>1.654679999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5.0868999999999998E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>5.0996999999999897E-2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>5.0644000000000002E-2</v>
       </c>
       <c r="G9">
         <v>5.2000999999999901E-2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>5.1580000000000001E-2</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>5.1218199999999957E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="7">
         <v>2.0684999999999999E-2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="7">
         <v>2.0639000000000001E-2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="7">
         <v>2.2311999999999999E-2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="7">
         <v>2.0962999999999999E-2</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="7">
         <v>2.0702999999999899E-2</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>2.1060399999999979E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f>B2</f>
         <v>Shakespeare</v>
@@ -5152,7 +5379,7 @@
         <v>Lottery</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="str" cm="1">
         <f t="array" ref="A16:A18">C2:C4</f>
         <v>Boyer Moore</v>
@@ -5170,7 +5397,7 @@
         <v>1.1647999999999982E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <v>Rabin Karp</v>
       </c>
@@ -5184,7 +5411,7 @@
         <v>3.4699999999999653E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>Brute Force</v>
       </c>
